--- a/dados/rodadas/todas_rodadas.xlsx
+++ b/dados/rodadas/todas_rodadas.xlsx
@@ -10157,7 +10157,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F263" t="n">
         <v>0</v>
@@ -10240,7 +10240,7 @@
         <v>2</v>
       </c>
       <c r="H265" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="I265" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F266" t="n">
         <v>0</v>
@@ -10277,7 +10277,7 @@
         <v>2</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="I266" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="F268" t="n">
         <v>1</v>
@@ -10489,10 +10489,18 @@
           <t>Cuiaba</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-      <c r="H272" t="inlineStr"/>
+      <c r="E272" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1.7</v>
+      </c>
       <c r="I272" t="inlineStr">
         <is>
           <t>Goias</t>
@@ -10518,10 +10526,18 @@
           <t>Sao Paulo</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr"/>
+      <c r="E273" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F273" t="n">
+        <v>3</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0.1</v>
+      </c>
       <c r="I273" t="inlineStr">
         <is>
           <t>Gremio</t>
@@ -10547,10 +10563,18 @@
           <t>Bahia</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr"/>
+      <c r="E274" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F274" t="n">
+        <v>2</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0.5</v>
+      </c>
       <c r="I274" t="inlineStr">
         <is>
           <t>Fortaleza</t>
@@ -10573,16 +10597,24 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr"/>
+          <t>Botafogo (RJ)</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1</v>
+      </c>
+      <c r="G275" t="n">
+        <v>1</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1.1</v>
+      </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
@@ -10602,16 +10634,24 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Internacional</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-      <c r="H276" t="inlineStr"/>
+          <t>Atletico Mineiro</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0</v>
+      </c>
+      <c r="G276" t="n">
+        <v>1</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0.9</v>
+      </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
     </row>
@@ -10631,16 +10671,24 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Flamengo</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-      <c r="H277" t="inlineStr"/>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F277" t="n">
+        <v>7</v>
+      </c>
+      <c r="G277" t="n">
+        <v>1</v>
+      </c>
+      <c r="H277" t="n">
+        <v>1.6</v>
+      </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Santos</t>
         </is>
       </c>
     </row>
@@ -10660,16 +10708,24 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Corinthians</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr"/>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1</v>
+      </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>America (MG)</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
     </row>
@@ -10689,16 +10745,24 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Coritiba</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-      <c r="H279" t="inlineStr"/>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1</v>
+      </c>
+      <c r="G279" t="n">
+        <v>1</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0.7</v>
+      </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>America (MG)</t>
         </is>
       </c>
     </row>
@@ -10718,16 +10782,24 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Bragantino</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-      <c r="H280" t="inlineStr"/>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0</v>
+      </c>
+      <c r="G280" t="n">
+        <v>2</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1.1</v>
+      </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Palmeiras</t>
         </is>
       </c>
     </row>
@@ -10737,26 +10809,34 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2023-10-21</t>
+          <t>2023-10-22</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Botafogo (RJ)</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-      <c r="H281" t="inlineStr"/>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0.5</v>
+      </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Ath Paranaense</t>
+          <t>Fluminense</t>
         </is>
       </c>
     </row>
@@ -11066,7 +11146,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Ath Paranaense</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -11075,7 +11155,7 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bragantino</t>
         </is>
       </c>
     </row>
@@ -11095,7 +11175,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Botafogo (RJ)</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -11104,7 +11184,7 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
     </row>
@@ -11124,7 +11204,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>America (MG)</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -11133,7 +11213,7 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11233,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -11162,7 +11242,7 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bahia</t>
         </is>
       </c>
     </row>
@@ -11172,17 +11252,17 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -11191,7 +11271,7 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
     </row>
@@ -11201,17 +11281,17 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -11220,7 +11300,7 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
     </row>
@@ -11230,17 +11310,17 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -11249,7 +11329,7 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Santos</t>
         </is>
       </c>
     </row>
@@ -11259,17 +11339,17 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>America (MG)</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -11278,7 +11358,7 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Coritiba</t>
         </is>
       </c>
     </row>
@@ -11288,17 +11368,17 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -11307,7 +11387,7 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cuiaba</t>
         </is>
       </c>
     </row>
@@ -11327,7 +11407,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -11336,7 +11416,7 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Fluminense</t>
         </is>
       </c>
     </row>
@@ -11346,17 +11426,17 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-10-30</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
@@ -11365,7 +11445,7 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
     </row>
@@ -11385,7 +11465,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
@@ -11394,7 +11474,7 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
@@ -11414,7 +11494,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr"/>
@@ -11423,7 +11503,7 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>America (MG)</t>
         </is>
       </c>
     </row>
@@ -11443,7 +11523,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
@@ -11452,7 +11532,7 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Ath Paranaense</t>
+          <t>Gremio</t>
         </is>
       </c>
     </row>
@@ -11472,7 +11552,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -11481,7 +11561,7 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
     </row>
@@ -11491,17 +11571,17 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -11510,7 +11590,7 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
     </row>
@@ -11520,17 +11600,17 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -11539,7 +11619,7 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>America (MG)</t>
+          <t>Bragantino</t>
         </is>
       </c>
     </row>
@@ -11549,17 +11629,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
@@ -11568,7 +11648,7 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
     </row>
@@ -11588,7 +11668,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Botafogo (RJ)</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -11597,7 +11677,7 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fortaleza</t>
         </is>
       </c>
     </row>
@@ -11617,7 +11697,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -11626,7 +11706,7 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Palmeiras</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11726,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E312" t="inlineStr"/>
@@ -11655,7 +11735,7 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Ath Paranaense</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
     </row>
@@ -11675,7 +11755,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E313" t="inlineStr"/>
@@ -11684,7 +11764,7 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Bahia</t>
         </is>
       </c>
     </row>
@@ -11704,7 +11784,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>America (MG)</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -11713,7 +11793,7 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Botafogo (RJ)</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
     </row>
@@ -11723,17 +11803,17 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -11742,7 +11822,7 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Internacional</t>
         </is>
       </c>
     </row>
@@ -11752,17 +11832,17 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>America (MG)</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="E316" t="inlineStr"/>
@@ -11771,7 +11851,7 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Botafogo (RJ)</t>
         </is>
       </c>
     </row>
@@ -11781,17 +11861,17 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
@@ -11800,7 +11880,7 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Corinthians</t>
         </is>
       </c>
     </row>
@@ -11810,17 +11890,17 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="E318" t="inlineStr"/>
@@ -11829,7 +11909,7 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Goias</t>
         </is>
       </c>
     </row>
@@ -11839,17 +11919,17 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="E319" t="inlineStr"/>
@@ -11858,7 +11938,7 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Flamengo</t>
         </is>
       </c>
     </row>
@@ -11878,7 +11958,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="E320" t="inlineStr"/>
@@ -11887,7 +11967,7 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
@@ -11897,17 +11977,17 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="E321" t="inlineStr"/>
@@ -11916,7 +11996,7 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cuiaba</t>
         </is>
       </c>
     </row>

--- a/dados/rodadas/todas_rodadas.xlsx
+++ b/dados/rodadas/todas_rodadas.xlsx
@@ -10499,7 +10499,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I272" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="F273" t="n">
         <v>3</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="I278" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
@@ -10888,10 +10888,18 @@
           <t>Ath Paranaense</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-      <c r="H283" t="inlineStr"/>
+      <c r="E283" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F283" t="n">
+        <v>3</v>
+      </c>
+      <c r="G283" t="n">
+        <v>2</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0.9</v>
+      </c>
       <c r="I283" t="inlineStr">
         <is>
           <t>America (MG)</t>
@@ -10917,10 +10925,18 @@
           <t>Bragantino</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-      <c r="H284" t="inlineStr"/>
+      <c r="E284" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1</v>
+      </c>
+      <c r="G284" t="n">
+        <v>2</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1.6</v>
+      </c>
       <c r="I284" t="inlineStr">
         <is>
           <t>Atletico Mineiro</t>
@@ -10946,10 +10962,18 @@
           <t>Fluminense</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-      <c r="H285" t="inlineStr"/>
+      <c r="E285" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F285" t="n">
+        <v>5</v>
+      </c>
+      <c r="G285" t="n">
+        <v>3</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0.6</v>
+      </c>
       <c r="I285" t="inlineStr">
         <is>
           <t>Goias</t>
@@ -10975,10 +10999,18 @@
           <t>Cruzeiro</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-      <c r="H286" t="inlineStr"/>
+      <c r="E286" t="n">
+        <v>2</v>
+      </c>
+      <c r="F286" t="n">
+        <v>3</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0.3</v>
+      </c>
       <c r="I286" t="inlineStr">
         <is>
           <t>Bahia</t>
@@ -11004,10 +11036,18 @@
           <t>Palmeiras</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-      <c r="H287" t="inlineStr"/>
+      <c r="E287" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F287" t="n">
+        <v>5</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0.1</v>
+      </c>
       <c r="I287" t="inlineStr">
         <is>
           <t>Sao Paulo</t>
@@ -11062,10 +11102,18 @@
           <t>Cuiaba</t>
         </is>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-      <c r="H289" t="inlineStr"/>
+      <c r="E289" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0</v>
+      </c>
+      <c r="G289" t="n">
+        <v>1</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1.6</v>
+      </c>
       <c r="I289" t="inlineStr">
         <is>
           <t>Corinthians</t>
@@ -11091,10 +11139,18 @@
           <t>Gremio</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-      <c r="H290" t="inlineStr"/>
+      <c r="E290" t="n">
+        <v>1</v>
+      </c>
+      <c r="F290" t="n">
+        <v>3</v>
+      </c>
+      <c r="G290" t="n">
+        <v>2</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1.1</v>
+      </c>
       <c r="I290" t="inlineStr">
         <is>
           <t>Flamengo</t>
@@ -11107,12 +11163,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2023-10-26</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
